--- a/Data/EC/NIT-9008479835.xlsx
+++ b/Data/EC/NIT-9008479835.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6F9E27-660F-4F4D-9C8A-8223E934A375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02790551-38BA-4610-8FCF-0B1C36C459DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB986396-857D-46FC-B813-E96496451D99}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86B320EF-76B3-4243-91DB-07271CE00FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="118">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,271 +71,292 @@
     <t>RAFAEL TORRES MALDONADO</t>
   </si>
   <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>2503</t>
   </si>
   <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1002320130</t>
-  </si>
-  <si>
-    <t>YOIDER RODRIGUEZ BLANCO</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>3933985</t>
-  </si>
-  <si>
-    <t>NILO RAFAEL RODRIGUEZ BLANCO</t>
+    <t>1072524410</t>
+  </si>
+  <si>
+    <t>SANTANDER PADILLA AVILA</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>92450342</t>
+  </si>
+  <si>
+    <t>EDUIN ROBLES GONZALEZ</t>
+  </si>
+  <si>
+    <t>1002320039</t>
+  </si>
+  <si>
+    <t>DIOVER CARDOZI MARTINEZ</t>
+  </si>
+  <si>
+    <t>1002320137</t>
+  </si>
+  <si>
+    <t>JESUS GABRIEL VERGARA GARCIA</t>
+  </si>
+  <si>
+    <t>1073821276</t>
+  </si>
+  <si>
+    <t>HERNANDO RAFAEL MONTES CUADRADO</t>
+  </si>
+  <si>
+    <t>1043434565</t>
+  </si>
+  <si>
+    <t>ANDRES BERRIO</t>
+  </si>
+  <si>
+    <t>9151764</t>
+  </si>
+  <si>
+    <t>JUAN MEZA CASTRO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -434,7 +455,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -447,9 +470,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -649,23 +670,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,10 +714,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,7 +770,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B510BD-E469-B4B3-5156-643DAFA3598D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A04334-4399-8C5C-B3BF-0DED69FD7FA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,8 +1121,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAFAE8C-09FD-49DA-9816-939ABB31C74B}">
-  <dimension ref="B2:J108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2938C6-4472-4980-9752-A5F2B2C31A0F}">
+  <dimension ref="B2:J109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1112,7 +1133,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1125,7 +1146,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1170,7 +1191,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1202,12 +1223,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2783278</v>
+        <v>2844014</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1218,17 +1239,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F13" s="5">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1255,13 +1276,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1278,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>6250</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -3118,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>6250</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3155,13 +3176,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F98" s="18">
         <v>56940</v>
@@ -3178,13 +3199,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F99" s="18">
         <v>56940</v>
@@ -3201,13 +3222,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F100" s="18">
         <v>56940</v>
@@ -3224,16 +3245,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F101" s="18">
-        <v>47450</v>
+        <v>56940</v>
       </c>
       <c r="G101" s="18">
         <v>1423500</v>
@@ -3243,56 +3264,79 @@
       <c r="J101" s="20"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F102" s="24">
-        <v>1898</v>
-      </c>
-      <c r="G102" s="24">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" s="18">
+        <v>43654</v>
+      </c>
+      <c r="G102" s="18">
         <v>1423500</v>
       </c>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="26"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C107" s="32"/>
-      <c r="H107" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F103" s="24">
+        <v>9490</v>
+      </c>
+      <c r="G103" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="26"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="32" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C108" s="32"/>
       <c r="H108" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="32"/>
+      <c r="H109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B109:C109"/>
     <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="H109:J109"/>
     <mergeCell ref="H108:J108"/>
-    <mergeCell ref="H107:J107"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
